--- a/Files/Respiration Campaing April 2022/EGM_1/27_04_2022/Codes 27_04_2022.xlsx
+++ b/Files/Respiration Campaing April 2022/EGM_1/27_04_2022/Codes 27_04_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\DeWood Git\DeWood\Files\Respiration Campaing April 2022\EGM_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\DeWood Git\DeWood\Files\Respiration Campaing April 2022\EGM_1\27_04_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856DE5CA-012E-4E8A-9FAC-2ACB266FFBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D37F2ED-469E-402E-B3F4-FC02CAF602B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7068" yWindow="1812" windowWidth="17112" windowHeight="11136" xr2:uid="{748EAEF1-DD6E-49AC-9B42-21BC1A660236}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17112" windowHeight="11136" xr2:uid="{748EAEF1-DD6E-49AC-9B42-21BC1A660236}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79DA8A7-3748-4C88-AB86-2477DF0CC4BD}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -864,7 +864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -873,7 +873,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -882,7 +882,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -891,7 +891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -900,7 +900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -909,7 +909,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -918,7 +918,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -927,7 +927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -936,7 +936,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -945,7 +945,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -954,7 +954,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -963,7 +963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -972,7 +972,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -980,8 +980,9 @@
       <c r="B62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -989,8 +990,9 @@
       <c r="B63" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -998,8 +1000,9 @@
       <c r="B64" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1007,8 +1010,9 @@
       <c r="B65" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1016,8 +1020,9 @@
       <c r="B66" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1025,8 +1030,9 @@
       <c r="B67" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1034,8 +1040,9 @@
       <c r="B68" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1043,8 +1050,9 @@
       <c r="B69" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -1052,8 +1060,9 @@
       <c r="B70" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -1061,23 +1070,188 @@
       <c r="B71" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <f t="shared" ref="A72:A73" si="1">A71+1</f>
+        <f t="shared" ref="A72:A91" si="1">A71+1</f>
         <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>42</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
